--- a/lib/seeds/PlaneModelMaster.xlsx
+++ b/lib/seeds/PlaneModelMaster.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PlaneManufacturers" sheetId="1" r:id="rId1"/>
-    <sheet name="PlaneModels" sheetId="2" r:id="rId2"/>
-    <sheet name="SeatConfigurations" sheetId="3" r:id="rId3"/>
+    <sheet name="OrderBook" sheetId="5" r:id="rId2"/>
+    <sheet name="PlaneModels" sheetId="2" r:id="rId3"/>
+    <sheet name="SeatConfigurations" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -57,9 +59,6 @@
     <t xml:space="preserve">size </t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>777-200ER</t>
   </si>
   <si>
@@ -69,25 +68,91 @@
     <t>777-300ER</t>
   </si>
   <si>
-    <t>777-8</t>
-  </si>
-  <si>
-    <t>777-9</t>
-  </si>
-  <si>
     <t>787-8</t>
   </si>
   <si>
     <t>787-9</t>
   </si>
   <si>
-    <t>737 MAX 9</t>
-  </si>
-  <si>
     <t>787-10</t>
   </si>
   <si>
-    <t>737 MAX 10</t>
+    <t>737-700</t>
+  </si>
+  <si>
+    <t>737-800</t>
+  </si>
+  <si>
+    <t>737-900ER</t>
+  </si>
+  <si>
+    <t>A318</t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>A321</t>
+  </si>
+  <si>
+    <t>A330-200</t>
+  </si>
+  <si>
+    <t>A330-300</t>
+  </si>
+  <si>
+    <t>A350-900</t>
+  </si>
+  <si>
+    <t>A350-1000</t>
+  </si>
+  <si>
+    <t>A380-800</t>
+  </si>
+  <si>
+    <t>747-8</t>
+  </si>
+  <si>
+    <t>plane_model_id</t>
+  </si>
+  <si>
+    <t>MAXPAS</t>
+  </si>
+  <si>
+    <t>SEATCONFIG</t>
+  </si>
+  <si>
+    <t>economy_class</t>
+  </si>
+  <si>
+    <t>business_class</t>
+  </si>
+  <si>
+    <t>first_class</t>
+  </si>
+  <si>
+    <t>brows</t>
+  </si>
+  <si>
+    <t>frows</t>
+  </si>
+  <si>
+    <t>family_group</t>
+  </si>
+  <si>
+    <t>production_capacity</t>
+  </si>
+  <si>
+    <t>plane_family</t>
+  </si>
+  <si>
+    <t>order_backlog</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -422,7 +487,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,242 +514,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>737</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>747</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>777</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>13080</v>
-      </c>
-      <c r="D2">
-        <v>171171</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E6" si="0">D2/C2</f>
-        <v>13.086467889908256</v>
-      </c>
-      <c r="F2">
-        <v>313</v>
-      </c>
-      <c r="G2">
-        <v>892</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>295200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>15843</v>
-      </c>
-      <c r="D3">
-        <v>181283</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>11.442466704538282</v>
-      </c>
-      <c r="F3">
-        <v>317</v>
-      </c>
-      <c r="G3">
-        <v>892</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>334000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>13649</v>
-      </c>
       <c r="D4">
-        <v>181283</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>13.281778884899992</v>
-      </c>
-      <c r="F4">
-        <v>396</v>
-      </c>
-      <c r="G4">
-        <v>892</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>361500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
+      <c r="B5">
+        <v>787</v>
       </c>
       <c r="C5">
-        <v>16110</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>187585</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>11.644009931719429</v>
-      </c>
-      <c r="F5">
-        <v>375</v>
-      </c>
-      <c r="G5">
-        <v>892</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>394900000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>320</v>
       </c>
       <c r="C6">
-        <v>14075</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>197977</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>14.065861456483127</v>
-      </c>
-      <c r="F6">
-        <v>425</v>
-      </c>
-      <c r="G6">
-        <v>892</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>425800000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>117340</v>
-      </c>
-      <c r="B20">
-        <v>9700</v>
-      </c>
-      <c r="C20">
-        <f>A20/B20</f>
-        <v>12.096907216494845</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>330</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>350</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>380</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -694,12 +661,3577 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>5750</v>
+      </c>
+      <c r="F2">
+        <v>136</v>
+      </c>
+      <c r="G2">
+        <v>828</v>
+      </c>
+      <c r="H2">
+        <v>4.22</v>
+      </c>
+      <c r="I2">
+        <v>77400000</v>
+      </c>
+      <c r="J2">
+        <v>7740</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>6950</v>
+      </c>
+      <c r="F3">
+        <v>160</v>
+      </c>
+      <c r="G3">
+        <v>828</v>
+      </c>
+      <c r="H3">
+        <v>3.49</v>
+      </c>
+      <c r="I3">
+        <v>92300000</v>
+      </c>
+      <c r="J3">
+        <v>9230</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>6100</v>
+      </c>
+      <c r="F4">
+        <v>190</v>
+      </c>
+      <c r="G4">
+        <v>828</v>
+      </c>
+      <c r="H4">
+        <v>3.98</v>
+      </c>
+      <c r="I4">
+        <v>101000000</v>
+      </c>
+      <c r="J4">
+        <v>10100</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>5950</v>
+      </c>
+      <c r="F5">
+        <v>230</v>
+      </c>
+      <c r="G5">
+        <v>828</v>
+      </c>
+      <c r="H5">
+        <v>4.08</v>
+      </c>
+      <c r="I5">
+        <v>118300000</v>
+      </c>
+      <c r="J5">
+        <v>11830</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>330</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>13450</v>
+      </c>
+      <c r="F6">
+        <v>406</v>
+      </c>
+      <c r="G6">
+        <v>871</v>
+      </c>
+      <c r="H6">
+        <v>10.34</v>
+      </c>
+      <c r="I6">
+        <v>238500000</v>
+      </c>
+      <c r="J6">
+        <v>23850</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>330</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>11750</v>
+      </c>
+      <c r="F7">
+        <v>440</v>
+      </c>
+      <c r="G7">
+        <v>871</v>
+      </c>
+      <c r="H7">
+        <v>11.83</v>
+      </c>
+      <c r="I7">
+        <v>264200000</v>
+      </c>
+      <c r="J7">
+        <v>26420</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>350</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>15000</v>
+      </c>
+      <c r="F8">
+        <v>411</v>
+      </c>
+      <c r="G8">
+        <v>903</v>
+      </c>
+      <c r="H8">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="I8">
+        <v>317400000</v>
+      </c>
+      <c r="J8">
+        <v>31740</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>15600</v>
+      </c>
+      <c r="F9">
+        <v>477</v>
+      </c>
+      <c r="G9">
+        <v>903</v>
+      </c>
+      <c r="H9">
+        <v>10.17</v>
+      </c>
+      <c r="I9">
+        <v>366500000</v>
+      </c>
+      <c r="J9">
+        <v>36650</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>380</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>14800</v>
+      </c>
+      <c r="F10">
+        <v>853</v>
+      </c>
+      <c r="G10">
+        <v>903</v>
+      </c>
+      <c r="H10">
+        <v>17.16</v>
+      </c>
+      <c r="I10">
+        <v>445600000</v>
+      </c>
+      <c r="J10">
+        <v>44560</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>737</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>5570</v>
+      </c>
+      <c r="F11">
+        <v>148</v>
+      </c>
+      <c r="G11">
+        <v>834</v>
+      </c>
+      <c r="H11">
+        <v>4.67</v>
+      </c>
+      <c r="I11">
+        <v>85800000</v>
+      </c>
+      <c r="J11">
+        <v>8580</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>737</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>5436</v>
+      </c>
+      <c r="F12">
+        <v>184</v>
+      </c>
+      <c r="G12">
+        <v>842</v>
+      </c>
+      <c r="H12">
+        <v>4.78</v>
+      </c>
+      <c r="I12">
+        <v>102200000</v>
+      </c>
+      <c r="J12">
+        <v>10220</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>737</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>5460</v>
+      </c>
+      <c r="F13">
+        <v>195</v>
+      </c>
+      <c r="G13">
+        <v>844</v>
+      </c>
+      <c r="H13">
+        <v>5.43</v>
+      </c>
+      <c r="I13">
+        <v>108400000</v>
+      </c>
+      <c r="J13">
+        <v>10840</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>747</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>15000</v>
+      </c>
+      <c r="F14">
+        <v>595</v>
+      </c>
+      <c r="G14">
+        <v>914</v>
+      </c>
+      <c r="H14">
+        <v>15.9</v>
+      </c>
+      <c r="I14">
+        <v>403600000</v>
+      </c>
+      <c r="J14">
+        <v>40360</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>777</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13080</v>
+      </c>
+      <c r="F15">
+        <v>435</v>
+      </c>
+      <c r="G15">
+        <v>892</v>
+      </c>
+      <c r="H15">
+        <v>13.08</v>
+      </c>
+      <c r="I15">
+        <v>295200000</v>
+      </c>
+      <c r="J15">
+        <v>29520</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>777</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>15843</v>
+      </c>
+      <c r="F16">
+        <v>435</v>
+      </c>
+      <c r="G16">
+        <v>892</v>
+      </c>
+      <c r="H16">
+        <v>11.44</v>
+      </c>
+      <c r="I16">
+        <v>334000000</v>
+      </c>
+      <c r="J16">
+        <v>33400</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>777</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>13649</v>
+      </c>
+      <c r="F17">
+        <v>545</v>
+      </c>
+      <c r="G17">
+        <v>892</v>
+      </c>
+      <c r="H17">
+        <v>13.28</v>
+      </c>
+      <c r="I17">
+        <v>361500000</v>
+      </c>
+      <c r="J17">
+        <v>36150</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>787</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>13620</v>
+      </c>
+      <c r="F18">
+        <v>359</v>
+      </c>
+      <c r="G18">
+        <v>903</v>
+      </c>
+      <c r="H18">
+        <v>9.26</v>
+      </c>
+      <c r="I18">
+        <v>239000000</v>
+      </c>
+      <c r="J18">
+        <v>23900</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>787</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>14140</v>
+      </c>
+      <c r="F19">
+        <v>406</v>
+      </c>
+      <c r="G19">
+        <v>903</v>
+      </c>
+      <c r="H19">
+        <v>8.93</v>
+      </c>
+      <c r="I19">
+        <v>281600000</v>
+      </c>
+      <c r="J19">
+        <v>28160</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>787</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>11910</v>
+      </c>
+      <c r="F20">
+        <v>440</v>
+      </c>
+      <c r="G20">
+        <v>903</v>
+      </c>
+      <c r="H20">
+        <v>10.61</v>
+      </c>
+      <c r="I20">
+        <v>325800000</v>
+      </c>
+      <c r="J20">
+        <v>32580</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <v>117340</v>
+      </c>
+      <c r="D47">
+        <v>9700</v>
+      </c>
+      <c r="E47">
+        <f>B47/D47</f>
+        <v>12.096907216494845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>136</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>154</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>142</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>194</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>182</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>310</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>278</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>246</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>344</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>312</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>280</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>264</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>303</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>267</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>231</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>369</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>333</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>297</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>279</v>
+      </c>
+      <c r="D27">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>243</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>613</v>
+      </c>
+      <c r="D29">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>533</v>
+      </c>
+      <c r="D30">
+        <v>96</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>453</v>
+      </c>
+      <c r="D31">
+        <v>120</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>463</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>463</v>
+      </c>
+      <c r="D33">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>148</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>112</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>148</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>136</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>195</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>159</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>147</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>123</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>379</v>
+      </c>
+      <c r="D44">
+        <v>72</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>361</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>289</v>
+      </c>
+      <c r="D46">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>291</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>219</v>
+      </c>
+      <c r="D48">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>291</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>219</v>
+      </c>
+      <c r="D50">
+        <v>72</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>401</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>329</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>311</v>
+      </c>
+      <c r="D53">
+        <v>48</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>359</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>295</v>
+      </c>
+      <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>263</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>342</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>310</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>278</v>
+      </c>
+      <c r="D59">
+        <v>48</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>376</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>312</v>
+      </c>
+      <c r="D61">
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>248</v>
+      </c>
+      <c r="D62">
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>232</v>
+      </c>
+      <c r="D63">
+        <v>48</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C33" si="0">A2-(D2*2*B2)-(F2*2.5*B2)</f>
+        <v>136</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E13" si="1">B2*2/3*D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G19" si="2">B2*1/3*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>136</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>160</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>160</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>190</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>190</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>230</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>230</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>230</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>406</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>406</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>406</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>440</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f>B17*2/3*D17</f>
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>440</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>440</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>440</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E28" si="3">B20*2/3*D20</f>
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>411</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G31" si="4">B21*1/3*F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>411</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>411</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>477</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>477</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>477</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>477</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>477</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>853</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>613</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>72</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>853</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>853</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>853</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E53" si="5">B32*2/3*D32</f>
+        <v>80</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>853</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>148</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C65" si="6">A34-(D34*2*B34)-(F34*2.5*B34)</f>
+        <v>148</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G62" si="7">B34*1/3*F34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>148</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>148</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>184</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>184</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>184</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>195</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>195</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>195</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>195</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>595</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="6"/>
+        <v>379</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>595</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="6"/>
+        <v>361</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>595</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="6"/>
+        <v>289</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>435</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>435</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>435</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>435</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>545</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="6"/>
+        <v>401</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>545</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="6"/>
+        <v>329</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>545</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="6"/>
+        <v>311</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>359</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="6"/>
+        <v>359</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>359</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>24</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>359</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>36</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>406</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="6"/>
+        <v>342</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>406</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="6"/>
+        <v>310</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>36</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>406</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>48</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>440</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="6"/>
+        <v>376</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>24</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>440</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="6"/>
+        <v>312</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>440</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>72</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>440</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>48</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>8</v>
+      </c>
+      <c r="H63">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lib/seeds/PlaneModelMaster.xlsx
+++ b/lib/seeds/PlaneModelMaster.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="21012" windowHeight="8208" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PlaneManufacturers" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="SeatConfigurations" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -143,23 +143,56 @@
     <t>family_group</t>
   </si>
   <si>
-    <t>production_capacity</t>
-  </si>
-  <si>
-    <t>plane_family</t>
-  </si>
-  <si>
-    <t>order_backlog</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>320_c</t>
+  </si>
+  <si>
+    <t>330_c</t>
+  </si>
+  <si>
+    <t>350_c</t>
+  </si>
+  <si>
+    <t>380_c</t>
+  </si>
+  <si>
+    <t>737_c</t>
+  </si>
+  <si>
+    <t>747_c</t>
+  </si>
+  <si>
+    <t>777_c</t>
+  </si>
+  <si>
+    <t>787_c</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>leaser_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>production_date</t>
+  </si>
+  <si>
+    <t>que_number</t>
+  </si>
+  <si>
+    <t>passenger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +229,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +278,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -274,6 +312,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -308,9 +347,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,28 +523,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -513,145 +601,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>737</v>
-      </c>
-      <c r="C2">
-        <v>52</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>747</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>777</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>787</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>320</v>
-      </c>
-      <c r="C6">
-        <v>48</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>330</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>350</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>380</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -660,22 +644,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -713,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -754,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -795,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -836,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -877,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -918,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -959,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1000,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1041,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1082,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1123,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1164,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1205,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1246,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1287,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1328,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1369,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1410,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1451,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1492,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>117340</v>
       </c>
@@ -1510,22 +1494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -1539,8 +1522,11 @@
       <c r="E1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1556,8 +1542,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -1570,8 +1562,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1584,8 +1582,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -1598,8 +1602,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -1612,8 +1622,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>2</v>
       </c>
@@ -1626,8 +1642,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>3</v>
       </c>
@@ -1640,8 +1662,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
         <v>3</v>
       </c>
@@ -1654,8 +1682,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>3</v>
       </c>
@@ -1668,8 +1702,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>4</v>
       </c>
@@ -1682,8 +1722,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12">
         <v>4</v>
       </c>
@@ -1696,8 +1742,14 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13">
         <v>4</v>
       </c>
@@ -1710,8 +1762,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14">
         <v>5</v>
       </c>
@@ -1724,8 +1782,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15">
         <v>5</v>
       </c>
@@ -1738,8 +1802,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16">
         <v>5</v>
       </c>
@@ -1752,8 +1822,14 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>6</v>
       </c>
@@ -1766,8 +1842,14 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>6</v>
       </c>
@@ -1780,8 +1862,14 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>6</v>
       </c>
@@ -1794,8 +1882,14 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>6</v>
       </c>
@@ -1808,8 +1902,14 @@
       <c r="E20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>7</v>
       </c>
@@ -1822,8 +1922,14 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="F21">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>7</v>
       </c>
@@ -1836,8 +1942,14 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F22">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>7</v>
       </c>
@@ -1850,8 +1962,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="F23">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>8</v>
       </c>
@@ -1864,8 +1982,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="F24">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>8</v>
       </c>
@@ -1878,8 +2002,14 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>8</v>
       </c>
@@ -1892,8 +2022,14 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27">
         <v>8</v>
       </c>
@@ -1906,8 +2042,14 @@
       <c r="E27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28">
         <v>8</v>
       </c>
@@ -1920,8 +2062,14 @@
       <c r="E28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="F28">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29">
         <v>9</v>
       </c>
@@ -1934,8 +2082,14 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="F29">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30">
         <v>9</v>
       </c>
@@ -1948,8 +2102,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31">
         <v>9</v>
       </c>
@@ -1962,8 +2122,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32">
         <v>9</v>
       </c>
@@ -1976,8 +2142,14 @@
       <c r="E32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33">
         <v>9</v>
       </c>
@@ -1990,8 +2162,14 @@
       <c r="E33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34">
         <v>10</v>
       </c>
@@ -2004,8 +2182,14 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35">
         <v>10</v>
       </c>
@@ -2018,8 +2202,14 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36">
         <v>10</v>
       </c>
@@ -2032,8 +2222,14 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="F36">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37">
         <v>11</v>
       </c>
@@ -2046,8 +2242,14 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38">
         <v>11</v>
       </c>
@@ -2060,8 +2262,14 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39">
         <v>11</v>
       </c>
@@ -2074,8 +2282,14 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40">
         <v>12</v>
       </c>
@@ -2088,8 +2302,14 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="F40">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41">
         <v>12</v>
       </c>
@@ -2102,8 +2322,14 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="F41">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42">
         <v>12</v>
       </c>
@@ -2116,8 +2342,14 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="F42">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43">
         <v>12</v>
       </c>
@@ -2130,8 +2362,14 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="F43">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44">
         <v>13</v>
       </c>
@@ -2144,8 +2382,14 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="F44">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45">
         <v>13</v>
       </c>
@@ -2158,8 +2402,14 @@
       <c r="E45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="F45">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46">
         <v>13</v>
       </c>
@@ -2172,8 +2422,14 @@
       <c r="E46">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="F46">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47">
         <v>14</v>
       </c>
@@ -2186,8 +2442,14 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="F47">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48">
         <v>14</v>
       </c>
@@ -2200,8 +2462,14 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="F48">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49">
         <v>15</v>
       </c>
@@ -2214,8 +2482,14 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="F49">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50">
         <v>15</v>
       </c>
@@ -2228,8 +2502,14 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="F50">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51">
         <v>16</v>
       </c>
@@ -2242,8 +2522,14 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="F51">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52">
         <v>16</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="F52">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53">
         <v>16</v>
       </c>
@@ -2270,8 +2562,14 @@
       <c r="E53">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="F53">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54">
         <v>17</v>
       </c>
@@ -2284,8 +2582,14 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="F54">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55">
         <v>17</v>
       </c>
@@ -2298,8 +2602,14 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="F55">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56">
         <v>17</v>
       </c>
@@ -2312,8 +2622,14 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="F56">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57">
         <v>18</v>
       </c>
@@ -2326,8 +2642,14 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="F57">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58">
         <v>18</v>
       </c>
@@ -2340,8 +2662,14 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="F58">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59">
         <v>18</v>
       </c>
@@ -2354,8 +2682,14 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="F59">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60">
         <v>19</v>
       </c>
@@ -2368,8 +2702,14 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="F60">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61">
         <v>19</v>
       </c>
@@ -2382,8 +2722,14 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="F61">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62">
         <v>19</v>
       </c>
@@ -2396,8 +2742,14 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
+      <c r="F62">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63">
         <v>19</v>
       </c>
@@ -2409,6 +2761,9 @@
       </c>
       <c r="E63">
         <v>8</v>
+      </c>
+      <c r="F63">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2417,19 +2772,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2455,7 +2810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>136</v>
       </c>
@@ -2484,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>136</v>
       </c>
@@ -2513,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>136</v>
       </c>
@@ -2542,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>160</v>
       </c>
@@ -2571,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>160</v>
       </c>
@@ -2600,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160</v>
       </c>
@@ -2629,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>190</v>
       </c>
@@ -2658,7 +3013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>190</v>
       </c>
@@ -2687,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>190</v>
       </c>
@@ -2716,7 +3071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>230</v>
       </c>
@@ -2745,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>230</v>
       </c>
@@ -2774,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>230</v>
       </c>
@@ -2803,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>406</v>
       </c>
@@ -2831,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>406</v>
       </c>
@@ -2859,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>406</v>
       </c>
@@ -2887,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>440</v>
       </c>
@@ -2916,7 +3271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>440</v>
       </c>
@@ -2944,7 +3299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>440</v>
       </c>
@@ -2972,7 +3327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>440</v>
       </c>
@@ -3000,7 +3355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>411</v>
       </c>
@@ -3029,7 +3384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>411</v>
       </c>
@@ -3058,7 +3413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>411</v>
       </c>
@@ -3087,7 +3442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>477</v>
       </c>
@@ -3116,7 +3471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>477</v>
       </c>
@@ -3145,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>477</v>
       </c>
@@ -3174,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>477</v>
       </c>
@@ -3203,7 +3558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>477</v>
       </c>
@@ -3232,7 +3587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>853</v>
       </c>
@@ -3260,7 +3615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>853</v>
       </c>
@@ -3288,7 +3643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>853</v>
       </c>
@@ -3316,7 +3671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>853</v>
       </c>
@@ -3344,7 +3699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>853</v>
       </c>
@@ -3372,7 +3727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>148</v>
       </c>
@@ -3380,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C65" si="6">A34-(D34*2*B34)-(F34*2.5*B34)</f>
+        <f t="shared" ref="C34:C63" si="6">A34-(D34*2*B34)-(F34*2.5*B34)</f>
         <v>148</v>
       </c>
       <c r="D34">
@@ -3401,7 +3756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>148</v>
       </c>
@@ -3430,7 +3785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>148</v>
       </c>
@@ -3459,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>184</v>
       </c>
@@ -3488,7 +3843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>184</v>
       </c>
@@ -3517,7 +3872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>184</v>
       </c>
@@ -3546,7 +3901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>195</v>
       </c>
@@ -3575,7 +3930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>195</v>
       </c>
@@ -3604,7 +3959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>195</v>
       </c>
@@ -3633,7 +3988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>195</v>
       </c>
@@ -3662,7 +4017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>595</v>
       </c>
@@ -3691,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>595</v>
       </c>
@@ -3720,7 +4075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>595</v>
       </c>
@@ -3749,7 +4104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>435</v>
       </c>
@@ -3778,7 +4133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>435</v>
       </c>
@@ -3807,7 +4162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>435</v>
       </c>
@@ -3836,7 +4191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>435</v>
       </c>
@@ -3865,7 +4220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>545</v>
       </c>
@@ -3894,7 +4249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>545</v>
       </c>
@@ -3923,7 +4278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>545</v>
       </c>
@@ -3952,7 +4307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>359</v>
       </c>
@@ -3980,7 +4335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>359</v>
       </c>
@@ -4008,7 +4363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>359</v>
       </c>
@@ -4036,7 +4391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>406</v>
       </c>
@@ -4064,7 +4419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>406</v>
       </c>
@@ -4092,7 +4447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>406</v>
       </c>
@@ -4120,7 +4475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>440</v>
       </c>
@@ -4148,7 +4503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>440</v>
       </c>
@@ -4176,7 +4531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>440</v>
       </c>
@@ -4204,7 +4559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>440</v>
       </c>

--- a/lib/seeds/PlaneModelMaster.xlsx
+++ b/lib/seeds/PlaneModelMaster.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="21012" windowHeight="8208" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PlaneManufacturers" sheetId="1" r:id="rId1"/>
-    <sheet name="OrderBook" sheetId="5" r:id="rId2"/>
-    <sheet name="PlaneModels" sheetId="2" r:id="rId3"/>
-    <sheet name="SeatConfigurations" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="PlaneModelFamily" sheetId="6" r:id="rId2"/>
+    <sheet name="OrderBook" sheetId="5" r:id="rId3"/>
+    <sheet name="PlaneModels" sheetId="2" r:id="rId4"/>
+    <sheet name="SeatConfigurations" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -140,36 +141,9 @@
     <t>frows</t>
   </si>
   <si>
-    <t>family_group</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>320_c</t>
-  </si>
-  <si>
-    <t>330_c</t>
-  </si>
-  <si>
-    <t>350_c</t>
-  </si>
-  <si>
-    <t>380_c</t>
-  </si>
-  <si>
-    <t>737_c</t>
-  </si>
-  <si>
-    <t>747_c</t>
-  </si>
-  <si>
-    <t>777_c</t>
-  </si>
-  <si>
-    <t>787_c</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -179,20 +153,74 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>production_date</t>
-  </si>
-  <si>
     <t>que_number</t>
   </si>
   <si>
     <t>passenger</t>
+  </si>
+  <si>
+    <t>plane_model_family_id</t>
+  </si>
+  <si>
+    <t>Airbus 320</t>
+  </si>
+  <si>
+    <t>Airbus 330</t>
+  </si>
+  <si>
+    <t>Airbus 350</t>
+  </si>
+  <si>
+    <t>Airbus 380</t>
+  </si>
+  <si>
+    <t>Boeing 737</t>
+  </si>
+  <si>
+    <t>Boeing 747</t>
+  </si>
+  <si>
+    <t>Boeing 777</t>
+  </si>
+  <si>
+    <t>Boeing 787</t>
+  </si>
+  <si>
+    <t>boeing_737</t>
+  </si>
+  <si>
+    <t>boeing_747</t>
+  </si>
+  <si>
+    <t>boeing_777</t>
+  </si>
+  <si>
+    <t>boeing_787</t>
+  </si>
+  <si>
+    <t>airbus_320</t>
+  </si>
+  <si>
+    <t>airbus_330</t>
+  </si>
+  <si>
+    <t>airbus_350</t>
+  </si>
+  <si>
+    <t>airbus_380</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>counter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -312,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -347,10 +375,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,45 +550,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -578,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -586,7 +613,7 @@
         <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -601,41 +628,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -644,848 +718,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>320</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>5750</v>
-      </c>
-      <c r="F2">
-        <v>136</v>
-      </c>
-      <c r="G2">
-        <v>828</v>
-      </c>
-      <c r="H2">
-        <v>4.22</v>
-      </c>
-      <c r="I2">
-        <v>77400000</v>
-      </c>
-      <c r="J2">
-        <v>7740</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>320</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>6950</v>
-      </c>
-      <c r="F3">
-        <v>160</v>
-      </c>
-      <c r="G3">
-        <v>828</v>
-      </c>
-      <c r="H3">
-        <v>3.49</v>
-      </c>
-      <c r="I3">
-        <v>92300000</v>
-      </c>
-      <c r="J3">
-        <v>9230</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>320</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>6100</v>
-      </c>
-      <c r="F4">
-        <v>190</v>
-      </c>
-      <c r="G4">
-        <v>828</v>
-      </c>
-      <c r="H4">
-        <v>3.98</v>
-      </c>
-      <c r="I4">
-        <v>101000000</v>
-      </c>
-      <c r="J4">
-        <v>10100</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>320</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>5950</v>
-      </c>
-      <c r="F5">
-        <v>230</v>
-      </c>
-      <c r="G5">
-        <v>828</v>
-      </c>
-      <c r="H5">
-        <v>4.08</v>
-      </c>
-      <c r="I5">
-        <v>118300000</v>
-      </c>
-      <c r="J5">
-        <v>11830</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>330</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>13450</v>
-      </c>
-      <c r="F6">
-        <v>406</v>
-      </c>
-      <c r="G6">
-        <v>871</v>
-      </c>
-      <c r="H6">
-        <v>10.34</v>
-      </c>
-      <c r="I6">
-        <v>238500000</v>
-      </c>
-      <c r="J6">
-        <v>23850</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>330</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>11750</v>
-      </c>
-      <c r="F7">
-        <v>440</v>
-      </c>
-      <c r="G7">
-        <v>871</v>
-      </c>
-      <c r="H7">
-        <v>11.83</v>
-      </c>
-      <c r="I7">
-        <v>264200000</v>
-      </c>
-      <c r="J7">
-        <v>26420</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>350</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>15000</v>
-      </c>
-      <c r="F8">
-        <v>411</v>
-      </c>
-      <c r="G8">
-        <v>903</v>
-      </c>
-      <c r="H8">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="I8">
-        <v>317400000</v>
-      </c>
-      <c r="J8">
-        <v>31740</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>350</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>15600</v>
-      </c>
-      <c r="F9">
-        <v>477</v>
-      </c>
-      <c r="G9">
-        <v>903</v>
-      </c>
-      <c r="H9">
-        <v>10.17</v>
-      </c>
-      <c r="I9">
-        <v>366500000</v>
-      </c>
-      <c r="J9">
-        <v>36650</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>380</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>14800</v>
-      </c>
-      <c r="F10">
-        <v>853</v>
-      </c>
-      <c r="G10">
-        <v>903</v>
-      </c>
-      <c r="H10">
-        <v>17.16</v>
-      </c>
-      <c r="I10">
-        <v>445600000</v>
-      </c>
-      <c r="J10">
-        <v>44560</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>737</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>5570</v>
-      </c>
-      <c r="F11">
-        <v>148</v>
-      </c>
-      <c r="G11">
-        <v>834</v>
-      </c>
-      <c r="H11">
-        <v>4.67</v>
-      </c>
-      <c r="I11">
-        <v>85800000</v>
-      </c>
-      <c r="J11">
-        <v>8580</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>737</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>5436</v>
-      </c>
-      <c r="F12">
-        <v>184</v>
-      </c>
-      <c r="G12">
-        <v>842</v>
-      </c>
-      <c r="H12">
-        <v>4.78</v>
-      </c>
-      <c r="I12">
-        <v>102200000</v>
-      </c>
-      <c r="J12">
-        <v>10220</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>737</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>5460</v>
-      </c>
-      <c r="F13">
-        <v>195</v>
-      </c>
-      <c r="G13">
-        <v>844</v>
-      </c>
-      <c r="H13">
-        <v>5.43</v>
-      </c>
-      <c r="I13">
-        <v>108400000</v>
-      </c>
-      <c r="J13">
-        <v>10840</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>747</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>15000</v>
-      </c>
-      <c r="F14">
-        <v>595</v>
-      </c>
-      <c r="G14">
-        <v>914</v>
-      </c>
-      <c r="H14">
-        <v>15.9</v>
-      </c>
-      <c r="I14">
-        <v>403600000</v>
-      </c>
-      <c r="J14">
-        <v>40360</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>777</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>13080</v>
-      </c>
-      <c r="F15">
-        <v>435</v>
-      </c>
-      <c r="G15">
-        <v>892</v>
-      </c>
-      <c r="H15">
-        <v>13.08</v>
-      </c>
-      <c r="I15">
-        <v>295200000</v>
-      </c>
-      <c r="J15">
-        <v>29520</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>777</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>15843</v>
-      </c>
-      <c r="F16">
-        <v>435</v>
-      </c>
-      <c r="G16">
-        <v>892</v>
-      </c>
-      <c r="H16">
-        <v>11.44</v>
-      </c>
-      <c r="I16">
-        <v>334000000</v>
-      </c>
-      <c r="J16">
-        <v>33400</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>777</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>13649</v>
-      </c>
-      <c r="F17">
-        <v>545</v>
-      </c>
-      <c r="G17">
-        <v>892</v>
-      </c>
-      <c r="H17">
-        <v>13.28</v>
-      </c>
-      <c r="I17">
-        <v>361500000</v>
-      </c>
-      <c r="J17">
-        <v>36150</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>787</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>13620</v>
-      </c>
-      <c r="F18">
-        <v>359</v>
-      </c>
-      <c r="G18">
-        <v>903</v>
-      </c>
-      <c r="H18">
-        <v>9.26</v>
-      </c>
-      <c r="I18">
-        <v>239000000</v>
-      </c>
-      <c r="J18">
-        <v>23900</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>787</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>14140</v>
-      </c>
-      <c r="F19">
-        <v>406</v>
-      </c>
-      <c r="G19">
-        <v>903</v>
-      </c>
-      <c r="H19">
-        <v>8.93</v>
-      </c>
-      <c r="I19">
-        <v>281600000</v>
-      </c>
-      <c r="J19">
-        <v>28160</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>8</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>787</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>11910</v>
-      </c>
-      <c r="F20">
-        <v>440</v>
-      </c>
-      <c r="G20">
-        <v>903</v>
-      </c>
-      <c r="H20">
-        <v>10.61</v>
-      </c>
-      <c r="I20">
-        <v>325800000</v>
-      </c>
-      <c r="J20">
-        <v>32580</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>8</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>117340</v>
-      </c>
-      <c r="D47">
-        <v>9700</v>
-      </c>
-      <c r="E47">
-        <f>B47/D47</f>
-        <v>12.096907216494845</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1494,21 +761,934 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>5750</v>
+      </c>
+      <c r="F2">
+        <v>136</v>
+      </c>
+      <c r="G2">
+        <v>828</v>
+      </c>
+      <c r="H2">
+        <v>4.22</v>
+      </c>
+      <c r="I2">
+        <v>77400000</v>
+      </c>
+      <c r="J2">
+        <v>7740</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6950</v>
+      </c>
+      <c r="F3" s="1">
+        <v>160</v>
+      </c>
+      <c r="G3" s="1">
+        <v>828</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="I3" s="1">
+        <v>92300000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9230</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>6100</v>
+      </c>
+      <c r="F4">
+        <v>190</v>
+      </c>
+      <c r="G4">
+        <v>828</v>
+      </c>
+      <c r="H4">
+        <v>3.98</v>
+      </c>
+      <c r="I4">
+        <v>101000000</v>
+      </c>
+      <c r="J4">
+        <v>10100</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>5950</v>
+      </c>
+      <c r="F5">
+        <v>230</v>
+      </c>
+      <c r="G5">
+        <v>828</v>
+      </c>
+      <c r="H5">
+        <v>4.08</v>
+      </c>
+      <c r="I5">
+        <v>118300000</v>
+      </c>
+      <c r="J5">
+        <v>11830</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>13450</v>
+      </c>
+      <c r="F6">
+        <v>406</v>
+      </c>
+      <c r="G6">
+        <v>871</v>
+      </c>
+      <c r="H6">
+        <v>10.34</v>
+      </c>
+      <c r="I6">
+        <v>238500000</v>
+      </c>
+      <c r="J6">
+        <v>23850</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>11750</v>
+      </c>
+      <c r="F7">
+        <v>440</v>
+      </c>
+      <c r="G7">
+        <v>871</v>
+      </c>
+      <c r="H7">
+        <v>11.83</v>
+      </c>
+      <c r="I7">
+        <v>264200000</v>
+      </c>
+      <c r="J7">
+        <v>26420</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>15000</v>
+      </c>
+      <c r="F8">
+        <v>411</v>
+      </c>
+      <c r="G8">
+        <v>903</v>
+      </c>
+      <c r="H8">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="I8">
+        <v>317400000</v>
+      </c>
+      <c r="J8">
+        <v>31740</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>15600</v>
+      </c>
+      <c r="F9">
+        <v>477</v>
+      </c>
+      <c r="G9">
+        <v>903</v>
+      </c>
+      <c r="H9">
+        <v>10.17</v>
+      </c>
+      <c r="I9">
+        <v>366500000</v>
+      </c>
+      <c r="J9">
+        <v>36650</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>14800</v>
+      </c>
+      <c r="F10">
+        <v>853</v>
+      </c>
+      <c r="G10">
+        <v>903</v>
+      </c>
+      <c r="H10">
+        <v>17.16</v>
+      </c>
+      <c r="I10">
+        <v>445600000</v>
+      </c>
+      <c r="J10">
+        <v>44560</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>5570</v>
+      </c>
+      <c r="F11">
+        <v>148</v>
+      </c>
+      <c r="G11">
+        <v>834</v>
+      </c>
+      <c r="H11">
+        <v>4.67</v>
+      </c>
+      <c r="I11">
+        <v>85800000</v>
+      </c>
+      <c r="J11">
+        <v>8580</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>5436</v>
+      </c>
+      <c r="F12">
+        <v>184</v>
+      </c>
+      <c r="G12">
+        <v>842</v>
+      </c>
+      <c r="H12">
+        <v>4.78</v>
+      </c>
+      <c r="I12">
+        <v>102200000</v>
+      </c>
+      <c r="J12">
+        <v>10220</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>5460</v>
+      </c>
+      <c r="F13">
+        <v>195</v>
+      </c>
+      <c r="G13">
+        <v>844</v>
+      </c>
+      <c r="H13">
+        <v>5.43</v>
+      </c>
+      <c r="I13">
+        <v>108400000</v>
+      </c>
+      <c r="J13">
+        <v>10840</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>15000</v>
+      </c>
+      <c r="F14">
+        <v>595</v>
+      </c>
+      <c r="G14">
+        <v>914</v>
+      </c>
+      <c r="H14">
+        <v>15.9</v>
+      </c>
+      <c r="I14">
+        <v>403600000</v>
+      </c>
+      <c r="J14">
+        <v>40360</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13080</v>
+      </c>
+      <c r="F15">
+        <v>435</v>
+      </c>
+      <c r="G15">
+        <v>892</v>
+      </c>
+      <c r="H15">
+        <v>13.08</v>
+      </c>
+      <c r="I15">
+        <v>295200000</v>
+      </c>
+      <c r="J15">
+        <v>29520</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>15843</v>
+      </c>
+      <c r="F16">
+        <v>435</v>
+      </c>
+      <c r="G16">
+        <v>892</v>
+      </c>
+      <c r="H16">
+        <v>11.44</v>
+      </c>
+      <c r="I16">
+        <v>334000000</v>
+      </c>
+      <c r="J16">
+        <v>33400</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>13649</v>
+      </c>
+      <c r="F17">
+        <v>545</v>
+      </c>
+      <c r="G17">
+        <v>892</v>
+      </c>
+      <c r="H17">
+        <v>13.28</v>
+      </c>
+      <c r="I17">
+        <v>361500000</v>
+      </c>
+      <c r="J17">
+        <v>36150</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>13620</v>
+      </c>
+      <c r="F18">
+        <v>359</v>
+      </c>
+      <c r="G18">
+        <v>903</v>
+      </c>
+      <c r="H18">
+        <v>9.26</v>
+      </c>
+      <c r="I18">
+        <v>239000000</v>
+      </c>
+      <c r="J18">
+        <v>23900</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>14140</v>
+      </c>
+      <c r="F19">
+        <v>406</v>
+      </c>
+      <c r="G19">
+        <v>903</v>
+      </c>
+      <c r="H19">
+        <v>8.93</v>
+      </c>
+      <c r="I19">
+        <v>281600000</v>
+      </c>
+      <c r="J19">
+        <v>28160</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>11910</v>
+      </c>
+      <c r="F20">
+        <v>440</v>
+      </c>
+      <c r="G20">
+        <v>903</v>
+      </c>
+      <c r="H20">
+        <v>10.61</v>
+      </c>
+      <c r="I20">
+        <v>325800000</v>
+      </c>
+      <c r="J20">
+        <v>32580</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <v>117340</v>
+      </c>
+      <c r="D47">
+        <v>9700</v>
+      </c>
+      <c r="E47">
+        <f>B47/D47</f>
+        <v>12.096907216494845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -1523,10 +1703,10 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1546,7 +1726,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1566,7 +1746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1586,7 +1766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1606,7 +1786,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1626,7 +1806,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1646,7 +1826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1666,7 +1846,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1686,7 +1866,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1706,7 +1886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1726,7 +1906,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1746,7 +1926,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1766,7 +1946,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1786,7 +1966,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1806,7 +1986,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1826,7 +2006,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1846,7 +2026,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1866,7 +2046,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1886,7 +2066,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1906,7 +2086,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1926,7 +2106,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1946,7 +2126,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1966,7 +2146,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1986,7 +2166,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2006,7 +2186,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2026,7 +2206,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2046,7 +2226,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2066,7 +2246,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2086,7 +2266,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2106,7 +2286,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2126,7 +2306,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2146,7 +2326,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2166,7 +2346,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2186,7 +2366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2206,7 +2386,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2226,7 +2406,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2246,7 +2426,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2266,7 +2446,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2286,7 +2466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2306,7 +2486,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2326,7 +2506,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2346,7 +2526,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2366,7 +2546,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2386,7 +2566,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2406,7 +2586,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2426,7 +2606,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2446,7 +2626,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2466,7 +2646,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2486,7 +2666,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2506,7 +2686,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2526,7 +2706,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2546,7 +2726,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2566,7 +2746,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2586,7 +2766,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2606,7 +2786,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2626,7 +2806,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2646,7 +2826,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2666,7 +2846,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2686,7 +2866,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2706,7 +2886,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2726,7 +2906,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2746,7 +2926,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2771,20 +2951,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2810,7 +2990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>136</v>
       </c>
@@ -2839,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>136</v>
       </c>
@@ -2868,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>136</v>
       </c>
@@ -2897,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>160</v>
       </c>
@@ -2926,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>160</v>
       </c>
@@ -2955,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>160</v>
       </c>
@@ -2984,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>190</v>
       </c>
@@ -3013,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>190</v>
       </c>
@@ -3042,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>190</v>
       </c>
@@ -3071,7 +3251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>230</v>
       </c>
@@ -3100,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>230</v>
       </c>
@@ -3129,7 +3309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>230</v>
       </c>
@@ -3158,7 +3338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>406</v>
       </c>
@@ -3186,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>406</v>
       </c>
@@ -3214,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>406</v>
       </c>
@@ -3242,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>440</v>
       </c>
@@ -3271,7 +3451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>440</v>
       </c>
@@ -3299,7 +3479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>440</v>
       </c>
@@ -3327,7 +3507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>440</v>
       </c>
@@ -3355,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>411</v>
       </c>
@@ -3384,7 +3564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>411</v>
       </c>
@@ -3413,7 +3593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>411</v>
       </c>
@@ -3442,7 +3622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>477</v>
       </c>
@@ -3471,7 +3651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>477</v>
       </c>
@@ -3500,7 +3680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>477</v>
       </c>
@@ -3529,7 +3709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>477</v>
       </c>
@@ -3558,7 +3738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>477</v>
       </c>
@@ -3587,7 +3767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>853</v>
       </c>
@@ -3615,7 +3795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>853</v>
       </c>
@@ -3643,7 +3823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>853</v>
       </c>
@@ -3671,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>853</v>
       </c>
@@ -3699,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>853</v>
       </c>
@@ -3727,7 +3907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>148</v>
       </c>
@@ -3756,7 +3936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>148</v>
       </c>
@@ -3785,7 +3965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>148</v>
       </c>
@@ -3814,7 +3994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>184</v>
       </c>
@@ -3843,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>184</v>
       </c>
@@ -3872,7 +4052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>184</v>
       </c>
@@ -3901,7 +4081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>195</v>
       </c>
@@ -3930,7 +4110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>195</v>
       </c>
@@ -3959,7 +4139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>195</v>
       </c>
@@ -3988,7 +4168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>195</v>
       </c>
@@ -4017,7 +4197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>595</v>
       </c>
@@ -4046,7 +4226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>595</v>
       </c>
@@ -4075,7 +4255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>595</v>
       </c>
@@ -4104,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>435</v>
       </c>
@@ -4133,7 +4313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>435</v>
       </c>
@@ -4162,7 +4342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>435</v>
       </c>
@@ -4191,7 +4371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>435</v>
       </c>
@@ -4220,7 +4400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>545</v>
       </c>
@@ -4249,7 +4429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>545</v>
       </c>
@@ -4278,7 +4458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>545</v>
       </c>
@@ -4307,7 +4487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>359</v>
       </c>
@@ -4335,7 +4515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>359</v>
       </c>
@@ -4363,7 +4543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>359</v>
       </c>
@@ -4391,7 +4571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>406</v>
       </c>
@@ -4419,7 +4599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>406</v>
       </c>
@@ -4447,7 +4627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>406</v>
       </c>
@@ -4475,7 +4655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>440</v>
       </c>
@@ -4503,7 +4683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>440</v>
       </c>
@@ -4531,7 +4711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>440</v>
       </c>
@@ -4559,7 +4739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>440</v>
       </c>

--- a/lib/seeds/PlaneModelMaster.xlsx
+++ b/lib/seeds/PlaneModelMaster.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="21012" windowHeight="8148" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PlaneManufacturers" sheetId="1" r:id="rId1"/>
-    <sheet name="PlaneModelFamily" sheetId="6" r:id="rId2"/>
+    <sheet name="PlaneModelFamilies" sheetId="6" r:id="rId2"/>
     <sheet name="OrderBook" sheetId="5" r:id="rId3"/>
     <sheet name="PlaneModels" sheetId="2" r:id="rId4"/>
     <sheet name="SeatConfigurations" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -144,9 +144,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>leaser_id</t>
   </si>
   <si>
@@ -186,41 +183,20 @@
     <t>Boeing 787</t>
   </si>
   <si>
-    <t>boeing_737</t>
-  </si>
-  <si>
-    <t>boeing_747</t>
-  </si>
-  <si>
-    <t>boeing_777</t>
-  </si>
-  <si>
-    <t>boeing_787</t>
-  </si>
-  <si>
-    <t>airbus_320</t>
-  </si>
-  <si>
-    <t>airbus_330</t>
-  </si>
-  <si>
-    <t>airbus_350</t>
-  </si>
-  <si>
-    <t>airbus_380</t>
-  </si>
-  <si>
     <t>delivery_date</t>
   </si>
   <si>
     <t>counter</t>
+  </si>
+  <si>
+    <t>production_capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +283,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -341,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,9 +352,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,76 +528,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="10" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -628,88 +561,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
+      <c r="C9">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -718,41 +679,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -761,22 +722,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -784,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -817,10 +778,10 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,7 +810,8 @@
         <v>77400000</v>
       </c>
       <c r="J2">
-        <v>7740</v>
+        <f>I2/500</f>
+        <v>154800</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -864,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -892,8 +854,9 @@
       <c r="I3" s="1">
         <v>92300000</v>
       </c>
-      <c r="J3" s="1">
-        <v>9230</v>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">I3/500</f>
+        <v>184600</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
@@ -908,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -937,7 +900,8 @@
         <v>101000000</v>
       </c>
       <c r="J4">
-        <v>10100</v>
+        <f t="shared" si="0"/>
+        <v>202000</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -952,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -981,7 +945,8 @@
         <v>118300000</v>
       </c>
       <c r="J5">
-        <v>11830</v>
+        <f t="shared" si="0"/>
+        <v>236600</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -996,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1025,7 +990,8 @@
         <v>238500000</v>
       </c>
       <c r="J6">
-        <v>23850</v>
+        <f t="shared" si="0"/>
+        <v>477000</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1040,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1069,7 +1035,8 @@
         <v>264200000</v>
       </c>
       <c r="J7">
-        <v>26420</v>
+        <f t="shared" si="0"/>
+        <v>528400</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1084,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1113,7 +1080,8 @@
         <v>317400000</v>
       </c>
       <c r="J8">
-        <v>31740</v>
+        <f t="shared" si="0"/>
+        <v>634800</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1128,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1157,7 +1125,8 @@
         <v>366500000</v>
       </c>
       <c r="J9">
-        <v>36650</v>
+        <f t="shared" si="0"/>
+        <v>733000</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1172,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1201,7 +1170,8 @@
         <v>445600000</v>
       </c>
       <c r="J10">
-        <v>44560</v>
+        <f t="shared" si="0"/>
+        <v>891200</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1216,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1245,7 +1215,8 @@
         <v>85800000</v>
       </c>
       <c r="J11">
-        <v>8580</v>
+        <f t="shared" si="0"/>
+        <v>171600</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1260,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1289,7 +1260,8 @@
         <v>102200000</v>
       </c>
       <c r="J12">
-        <v>10220</v>
+        <f t="shared" si="0"/>
+        <v>204400</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1304,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1333,7 +1305,8 @@
         <v>108400000</v>
       </c>
       <c r="J13">
-        <v>10840</v>
+        <f t="shared" si="0"/>
+        <v>216800</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1348,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1377,7 +1350,8 @@
         <v>403600000</v>
       </c>
       <c r="J14">
-        <v>40360</v>
+        <f t="shared" si="0"/>
+        <v>807200</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1392,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1421,7 +1395,8 @@
         <v>295200000</v>
       </c>
       <c r="J15">
-        <v>29520</v>
+        <f t="shared" si="0"/>
+        <v>590400</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1436,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1465,7 +1440,8 @@
         <v>334000000</v>
       </c>
       <c r="J16">
-        <v>33400</v>
+        <f t="shared" si="0"/>
+        <v>668000</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1480,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1509,7 +1485,8 @@
         <v>361500000</v>
       </c>
       <c r="J17">
-        <v>36150</v>
+        <f t="shared" si="0"/>
+        <v>723000</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1524,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1553,7 +1530,8 @@
         <v>239000000</v>
       </c>
       <c r="J18">
-        <v>23900</v>
+        <f t="shared" si="0"/>
+        <v>478000</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1568,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1597,7 +1575,8 @@
         <v>281600000</v>
       </c>
       <c r="J19">
-        <v>28160</v>
+        <f t="shared" si="0"/>
+        <v>563200</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1641,7 +1620,8 @@
         <v>325800000</v>
       </c>
       <c r="J20">
-        <v>32580</v>
+        <f t="shared" si="0"/>
+        <v>651600</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1656,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>117340</v>
       </c>
@@ -1674,19 +1654,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1703,10 +1683,10 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1726,7 +1706,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1746,7 +1726,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1766,7 +1746,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1786,7 +1766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1806,7 +1786,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1826,7 +1806,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1846,7 +1826,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1866,7 +1846,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1886,7 +1866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1906,7 +1886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1926,7 +1906,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1946,7 +1926,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1966,7 +1946,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1986,7 +1966,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2006,7 +1986,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2026,7 +2006,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2046,7 +2026,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2066,7 +2046,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2086,7 +2066,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2106,7 +2086,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2126,7 +2106,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2146,7 +2126,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2166,7 +2146,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2186,7 +2166,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2206,7 +2186,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2226,7 +2206,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2246,7 +2226,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2266,7 +2246,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2286,7 +2266,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2306,7 +2286,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2326,7 +2306,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2346,7 +2326,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2366,7 +2346,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2386,7 +2366,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2406,7 +2386,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2426,7 +2406,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2446,7 +2426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2466,7 +2446,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2486,7 +2466,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2506,7 +2486,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2526,7 +2506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2546,7 +2526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2566,7 +2546,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2586,7 +2566,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2606,7 +2586,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2626,7 +2606,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2646,7 +2626,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2666,7 +2646,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2686,7 +2666,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2706,7 +2686,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2726,7 +2706,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2746,7 +2726,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2766,7 +2746,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2786,7 +2766,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2806,7 +2786,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2826,7 +2806,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2846,7 +2826,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2866,7 +2846,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2886,7 +2866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2906,7 +2886,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2926,7 +2906,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2952,19 +2932,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2990,7 +2970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>136</v>
       </c>
@@ -3019,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>136</v>
       </c>
@@ -3048,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>136</v>
       </c>
@@ -3077,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>160</v>
       </c>
@@ -3106,7 +3086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>160</v>
       </c>
@@ -3135,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160</v>
       </c>
@@ -3164,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>190</v>
       </c>
@@ -3193,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>190</v>
       </c>
@@ -3222,7 +3202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>190</v>
       </c>
@@ -3251,7 +3231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>230</v>
       </c>
@@ -3280,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>230</v>
       </c>
@@ -3309,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>230</v>
       </c>
@@ -3338,7 +3318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>406</v>
       </c>
@@ -3366,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>406</v>
       </c>
@@ -3394,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>406</v>
       </c>
@@ -3422,7 +3402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>440</v>
       </c>
@@ -3451,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>440</v>
       </c>
@@ -3479,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>440</v>
       </c>
@@ -3507,7 +3487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>440</v>
       </c>
@@ -3535,7 +3515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>411</v>
       </c>
@@ -3564,7 +3544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>411</v>
       </c>
@@ -3593,7 +3573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>411</v>
       </c>
@@ -3622,7 +3602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>477</v>
       </c>
@@ -3651,7 +3631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>477</v>
       </c>
@@ -3680,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>477</v>
       </c>
@@ -3709,7 +3689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>477</v>
       </c>
@@ -3738,7 +3718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>477</v>
       </c>
@@ -3767,7 +3747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>853</v>
       </c>
@@ -3795,7 +3775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>853</v>
       </c>
@@ -3823,7 +3803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>853</v>
       </c>
@@ -3851,7 +3831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>853</v>
       </c>
@@ -3879,7 +3859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>853</v>
       </c>
@@ -3907,7 +3887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>148</v>
       </c>
@@ -3936,7 +3916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>148</v>
       </c>
@@ -3965,7 +3945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>148</v>
       </c>
@@ -3994,7 +3974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>184</v>
       </c>
@@ -4023,7 +4003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>184</v>
       </c>
@@ -4052,7 +4032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>184</v>
       </c>
@@ -4081,7 +4061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>195</v>
       </c>
@@ -4110,7 +4090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>195</v>
       </c>
@@ -4139,7 +4119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>195</v>
       </c>
@@ -4168,7 +4148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>195</v>
       </c>
@@ -4197,7 +4177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>595</v>
       </c>
@@ -4226,7 +4206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>595</v>
       </c>
@@ -4255,7 +4235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>595</v>
       </c>
@@ -4284,7 +4264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>435</v>
       </c>
@@ -4313,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>435</v>
       </c>
@@ -4342,7 +4322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>435</v>
       </c>
@@ -4371,7 +4351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>435</v>
       </c>
@@ -4400,7 +4380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>545</v>
       </c>
@@ -4429,7 +4409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>545</v>
       </c>
@@ -4458,7 +4438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>545</v>
       </c>
@@ -4487,7 +4467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>359</v>
       </c>
@@ -4515,7 +4495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>359</v>
       </c>
@@ -4543,7 +4523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>359</v>
       </c>
@@ -4571,7 +4551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>406</v>
       </c>
@@ -4599,7 +4579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>406</v>
       </c>
@@ -4627,7 +4607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>406</v>
       </c>
@@ -4655,7 +4635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>440</v>
       </c>
@@ -4683,7 +4663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>440</v>
       </c>
@@ -4711,7 +4691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>440</v>
       </c>
@@ -4739,7 +4719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>440</v>
       </c>
